--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\ExcelToSQL-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939F4F16-5E7A-4095-BE3A-0CEA9CAB6189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1109C289-E140-4795-BB9A-73C7B4E0A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="A1:XFD1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
